--- a/data/trans_bre/P7_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P7_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,34</t>
+          <t>-5,26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,63</t>
+          <t>-5,81</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,69</t>
+          <t>-7,94</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,74</t>
+          <t>-9,71</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-11,7</t>
+          <t>-10,81</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,73%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-7,21%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-6,31%</t>
+          <t>-5,68%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-9,6%</t>
+          <t>-6,36%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-12,94%</t>
+          <t>-8,88%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-10,64%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-11,58%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 2,13</t>
+          <t>-13,12; 3,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,13; -0,99</t>
+          <t>-14,03; 1,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,67; -0,57</t>
+          <t>-14,63; -1,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,14; -3,36</t>
+          <t>-15,43; -4,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,36; -4,01</t>
+          <t>-19,06; -2,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 2,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,94; -1,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-12,69; -0,63</t>
+          <t>-13,86; 3,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-15,15; -3,84</t>
+          <t>-15,05; 1,86</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-20,88; -4,71</t>
+          <t>-16,13; -2,12</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-16,52; -5,03</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-20,39; -3,39</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-1,16%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-2,26%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>-2,35%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>0,08%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,34%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2,26%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-1,18%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 1,27</t>
+          <t>-7,97; 1,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 0,5</t>
+          <t>-3,87; 3,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 3,56</t>
+          <t>-1,85; 4,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 4,63</t>
+          <t>-0,86; 5,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 4,19</t>
+          <t>-4,87; 2,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 1,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 0,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 3,91</t>
+          <t>-8,38; 2,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 5,13</t>
+          <t>-4,1; 3,94</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 4,65</t>
+          <t>-1,97; 5,55</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-0,88; 5,6</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-5,18; 2,85</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,52 +988,72 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,91</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>5,31</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>0,31%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,68%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2,09%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,59 +1066,79 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 9,0</t>
+          <t>0,6; 10,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 9,14</t>
+          <t>1,56; 12,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 4,63</t>
+          <t>-3,86; 5,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 4,86</t>
+          <t>-3,24; 4,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 9,92</t>
+          <t>-2,82; 7,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 10,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 10,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 5,19</t>
+          <t>0,62; 12,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 5,52</t>
+          <t>1,65; 14,6</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 12,0</t>
+          <t>-4,1; 5,92</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-3,48; 5,15</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-3,03; 8,5</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>-4,48</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,42%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-1,45%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-1,21%</t>
+          <t>-0,44%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-1,45%</t>
+          <t>-4,76%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-3,19%</t>
+          <t>0,27%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-0,7%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,252 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 1,64</t>
+          <t>-3,06; 2,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 1,16</t>
+          <t>-8,16; -1,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 0,94</t>
+          <t>-3,55; 4,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 0,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 0,21</t>
+          <t>-6,69; 5,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 1,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 1,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 1,04</t>
+          <t>-3,25; 2,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 0,75</t>
+          <t>-8,55; -1,34</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 0,22</t>
+          <t>-3,71; 4,68</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-7,1; 6,36</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,34</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-1,35</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,96</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-1,4</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-1,85</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,37%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-1,45%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-1,05%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-1,53%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-2,02%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-2,39; 1,85</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-3,53; 0,94</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-2,84; 1,37</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-3,66; 0,72</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-5,14; 1,14</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-2,56; 2,03</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-3,77; 1,03</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-3,05; 1,48</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-3,94; 0,8</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-5,51; 1,27</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
